--- a/old_scripts/data_sti_old.xlsx
+++ b/old_scripts/data_sti_old.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.tidhar\Documents\GitHub\STI-HIV-coinfection\old_scripts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="5" r:id="rId2"/>
     <sheet name="base" sheetId="15" r:id="rId3"/>
-    <sheet name="base (old)" sheetId="18" r:id="rId4"/>
-    <sheet name="data (old)" sheetId="19" r:id="rId5"/>
-    <sheet name="PrEPX" sheetId="17" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId4"/>
+    <sheet name="base (old)" sheetId="18" r:id="rId5"/>
+    <sheet name="data (old)" sheetId="19" r:id="rId6"/>
+    <sheet name="PrEPX" sheetId="17" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -25,7 +31,7 @@
     <author>Michael Traeger</author>
   </authors>
   <commentList>
-    <comment ref="M4" authorId="0">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,10 +55,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="1">
+    <comment ref="C13" authorId="1" shapeId="0">
       <text/>
     </comment>
-    <comment ref="C15" authorId="1">
+    <comment ref="C15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="1">
+    <comment ref="C17" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="1">
+    <comment ref="C20" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0">
+    <comment ref="C21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0">
+    <comment ref="C25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0">
+    <comment ref="C26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -279,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0">
+    <comment ref="C27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -314,7 +320,7 @@
     <author>Michael Traeger</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -338,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="G1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -439,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -463,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -487,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -515,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -566,7 +572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -621,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -645,7 +651,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -669,7 +675,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -693,7 +699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -717,7 +723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -741,7 +747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="1">
+    <comment ref="D11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -769,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U11" authorId="1">
+    <comment ref="U11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -793,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -817,7 +823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0">
+    <comment ref="I12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -841,7 +847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -876,7 +882,7 @@
     <author>Michael Traeger</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -900,7 +906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -934,7 +940,7 @@
     <author>Michael Traeger</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -958,7 +964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -993,7 +999,7 @@
     <author>Michael Traeger</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1017,7 +1023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1041,7 +1047,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="G1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1068,7 +1074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1094,7 +1100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1118,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1142,7 +1148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1166,7 +1172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1192,7 +1198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1217,7 +1223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1243,7 +1249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1272,7 +1278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1298,7 +1304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1322,7 +1328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1346,7 +1352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1370,7 +1376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1394,7 +1400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1418,7 +1424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="1">
+    <comment ref="D11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1446,7 +1452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U11" authorId="1">
+    <comment ref="U11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1470,7 +1476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1499,7 +1505,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="145">
   <si>
     <t>Waiting list</t>
   </si>
@@ -1928,12 +1934,18 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>numprep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2739,7 +2751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -2757,7 +2769,7 @@
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2784,7 +2796,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -2805,7 +2817,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -2825,7 +2837,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -2848,7 +2860,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -2871,7 +2883,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>43</v>
       </c>
@@ -2901,7 +2913,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>90</v>
       </c>
@@ -2931,7 +2943,7 @@
         <v>4.6046927083333387E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
@@ -2951,7 +2963,7 @@
         <v>1.0499999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
@@ -2965,7 +2977,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
@@ -2985,7 +2997,7 @@
         <v>1.0499999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -3008,7 +3020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>28</v>
       </c>
@@ -3030,7 +3042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>30</v>
       </c>
@@ -3049,7 +3061,7 @@
         <v>0.13650000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>34</v>
       </c>
@@ -3069,7 +3081,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>36</v>
       </c>
@@ -3087,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>38</v>
       </c>
@@ -3106,7 +3118,7 @@
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>42</v>
       </c>
@@ -3144,7 +3156,7 @@
         <v>0.42000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>139</v>
       </c>
@@ -3176,7 +3188,7 @@
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
     </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>82</v>
       </c>
@@ -3196,7 +3208,7 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>83</v>
       </c>
@@ -3215,7 +3227,7 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>64</v>
       </c>
@@ -3234,7 +3246,7 @@
         <v>0.10500000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>65</v>
       </c>
@@ -3253,7 +3265,7 @@
         <v>0.17850000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>66</v>
       </c>
@@ -3272,7 +3284,7 @@
         <v>0.40739999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>94</v>
       </c>
@@ -3409,7 +3421,7 @@
     <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
@@ -3475,7 +3487,7 @@
       </c>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>2007</v>
       </c>
@@ -3546,7 +3558,7 @@
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2008</v>
       </c>
@@ -3601,7 +3613,7 @@
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2009</v>
       </c>
@@ -3656,7 +3668,7 @@
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2010</v>
       </c>
@@ -3729,7 +3741,7 @@
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2011</v>
       </c>
@@ -3796,7 +3808,7 @@
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2012</v>
       </c>
@@ -3869,7 +3881,7 @@
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2013</v>
       </c>
@@ -3942,7 +3954,7 @@
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2014</v>
       </c>
@@ -4015,7 +4027,7 @@
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2015</v>
       </c>
@@ -4088,7 +4100,7 @@
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2016</v>
       </c>
@@ -4162,7 +4174,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2017</v>
       </c>
@@ -4225,7 +4237,7 @@
         <v>413.28630000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2018</v>
       </c>
@@ -4233,45 +4245,45 @@
       <c r="C13" s="21"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="J14" s="87"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G24" s="12"/>
     </row>
   </sheetData>
@@ -4287,7 +4299,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,7 +4330,7 @@
     <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -4392,7 +4404,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -4471,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2010</v>
       </c>
@@ -4503,7 +4515,7 @@
       <c r="W3" s="70"/>
       <c r="X3" s="69"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -4533,7 +4545,7 @@
       <c r="W4" s="70"/>
       <c r="X4" s="69"/>
     </row>
-    <row r="5" spans="1:24" s="93" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="93">
         <v>2018</v>
       </c>
@@ -4563,7 +4575,7 @@
       <c r="W5" s="70"/>
       <c r="X5" s="69"/>
     </row>
-    <row r="6" spans="1:24" s="93" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="93">
         <v>2019</v>
       </c>
@@ -4593,7 +4605,7 @@
       <c r="W6" s="70"/>
       <c r="X6" s="69"/>
     </row>
-    <row r="7" spans="1:24" s="93" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="93">
         <v>2025</v>
       </c>
@@ -4621,7 +4633,7 @@
       <c r="W7" s="70"/>
       <c r="X7" s="69"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -4651,7 +4663,7 @@
       <c r="W8" s="70"/>
       <c r="X8" s="69"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2040</v>
       </c>
@@ -4739,6 +4751,236 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A2)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A3)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A3))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="93">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A4)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A4))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="93">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A5)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A5))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="93">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A6)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="93">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A7)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="93">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A8)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="93">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A9)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A9))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="93">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A10)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A10))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="93">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A11)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A11))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="93">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A12)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A12))</f>
+        <v>1483.4038275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="93">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A13)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A13))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="93">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A14)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A14))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="93">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A15)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A15))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="93">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A16)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A16))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="93">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A17)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A17))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="93">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A18)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A18))</f>
+        <v>3975.8060050383801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="93">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A19)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A19))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="93">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A20)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A20))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="93">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A21)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A21))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="93">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A22)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A22))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="93">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A23)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A23))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="93">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="93">
+        <f>SUMPRODUCT(data!$G$2:$G$13*(data!$A$2:$A$13=Sheet1!$A24)) * SUMPRODUCT(base!$B$2:$B$9*(base!$A$2:$A$9=Sheet1!$A24))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X8"/>
   <sheetViews>
@@ -4776,7 +5018,7 @@
     <col min="25" max="16384" width="9.140625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
         <v>31</v>
       </c>
@@ -4850,7 +5092,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="93">
         <v>2000</v>
       </c>
@@ -4925,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="93">
         <v>2010</v>
       </c>
@@ -4957,7 +5199,7 @@
       <c r="W3" s="70"/>
       <c r="X3" s="69"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="93">
         <v>2016</v>
       </c>
@@ -4987,7 +5229,7 @@
       <c r="W4" s="70"/>
       <c r="X4" s="69"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="93">
         <v>2018</v>
       </c>
@@ -5019,7 +5261,7 @@
       <c r="W5" s="70"/>
       <c r="X5" s="69"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="93">
         <v>2023</v>
       </c>
@@ -5047,7 +5289,7 @@
       <c r="W6" s="70"/>
       <c r="X6" s="69"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="93">
         <v>2030</v>
       </c>
@@ -5077,7 +5319,7 @@
       <c r="W7" s="70"/>
       <c r="X7" s="69"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="93">
         <v>2040</v>
       </c>
@@ -5158,7 +5400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V24"/>
   <sheetViews>
@@ -5194,7 +5436,7 @@
     <col min="23" max="16384" width="8.85546875" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
@@ -5260,7 +5502,7 @@
       </c>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>2007</v>
       </c>
@@ -5330,7 +5572,7 @@
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2008</v>
       </c>
@@ -5385,7 +5627,7 @@
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2009</v>
       </c>
@@ -5440,7 +5682,7 @@
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2010</v>
       </c>
@@ -5513,7 +5755,7 @@
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2011</v>
       </c>
@@ -5580,7 +5822,7 @@
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2012</v>
       </c>
@@ -5653,7 +5895,7 @@
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2013</v>
       </c>
@@ -5726,7 +5968,7 @@
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2014</v>
       </c>
@@ -5799,7 +6041,7 @@
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2015</v>
       </c>
@@ -5872,7 +6114,7 @@
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2016</v>
       </c>
@@ -5946,7 +6188,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2017</v>
       </c>
@@ -5974,51 +6216,51 @@
       </c>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="21"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="J14" s="87"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G24" s="12"/>
     </row>
   </sheetData>
@@ -6028,7 +6270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -6045,7 +6287,7 @@
     <col min="5" max="5" width="54.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
         <v>119</v>
       </c>
@@ -6054,7 +6296,7 @@
       <c r="D1" s="93"/>
       <c r="E1" s="93"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="93"/>
       <c r="B2" s="93" t="s">
         <v>110</v>
@@ -6069,7 +6311,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
         <v>114</v>
       </c>
@@ -6086,7 +6328,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="93" t="s">
         <v>115</v>
       </c>
@@ -6103,7 +6345,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="93" t="s">
         <v>116</v>
       </c>
@@ -6120,7 +6362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="93" t="s">
         <v>117</v>
       </c>
@@ -6137,7 +6379,7 @@
         <v>25.18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="93" t="s">
         <v>118</v>
       </c>
@@ -6154,20 +6396,20 @@
         <v>100.82</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="93"/>
       <c r="B8" s="93"/>
       <c r="C8" s="93"/>
       <c r="D8" s="93"/>
       <c r="E8" s="93"/>
     </row>
-    <row r="9" spans="1:5" s="98" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="98" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>110</v>
       </c>
@@ -6181,7 +6423,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -6198,7 +6440,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -6215,7 +6457,7 @@
         <v>12.92</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -6232,7 +6474,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -6249,7 +6491,7 @@
         <v>27.21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -6266,13 +6508,13 @@
         <v>154.75</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="98" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="98" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>110</v>
       </c>
@@ -6286,7 +6528,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -6303,7 +6545,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -6320,7 +6562,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -6337,7 +6579,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -6354,7 +6596,7 @@
         <v>27.21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>118</v>
       </c>
